--- a/Test Summaries/Test Summary 11-07-19 4 kilobytes.xlsx
+++ b/Test Summaries/Test Summary 11-07-19 4 kilobytes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalee\Documents\Work\City University\Performance Testing\Test Summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65849D03-C413-490F-A575-DF56398C8D1E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E853B0D-6CAD-4C2D-9C34-7970E7501E4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="34">
   <si>
     <t>Pub 1</t>
   </si>
@@ -88,6 +88,45 @@
   </si>
   <si>
     <t>Reliable Unicast</t>
+  </si>
+  <si>
+    <t>Test 2.1</t>
+  </si>
+  <si>
+    <t>Test 2.2</t>
+  </si>
+  <si>
+    <t>Test 2.3</t>
+  </si>
+  <si>
+    <t>Test 2.4</t>
+  </si>
+  <si>
+    <t>Test 2.5</t>
+  </si>
+  <si>
+    <t>Test 2.6</t>
+  </si>
+  <si>
+    <t>Test 2.7</t>
+  </si>
+  <si>
+    <t>Test 2.8</t>
+  </si>
+  <si>
+    <t>Test 2.9</t>
+  </si>
+  <si>
+    <t>Test 2.10</t>
+  </si>
+  <si>
+    <t>Test 2.11</t>
+  </si>
+  <si>
+    <t>Test 2.12</t>
+  </si>
+  <si>
+    <t>Unavailable</t>
   </si>
 </sst>
 </file>
@@ -609,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,9 +669,14 @@
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -677,34 +721,62 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="14">
+        <v>128.6</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1156</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="14">
+        <v>187.8</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1185</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="D7" s="15"/>
       <c r="E7" s="5"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="15">
+        <v>277.5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1083</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="6"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="6"/>
+      <c r="G8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="16">
+        <v>87.2</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1121</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -713,9 +785,14 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -760,7 +837,9 @@
       <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="D15" s="14"/>
       <c r="E15" s="4"/>
       <c r="G15" s="17"/>
@@ -771,7 +850,9 @@
       <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="19"/>
+      <c r="C16" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" s="15"/>
       <c r="E16" s="5"/>
       <c r="G16" s="19"/>
@@ -782,7 +863,9 @@
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="16"/>
       <c r="E17" s="6"/>
       <c r="G17" s="18"/>
@@ -815,6 +898,9 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -913,6 +999,9 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
@@ -1006,6 +1095,9 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
+      <c r="I39" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
@@ -1105,6 +1197,9 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
+      <c r="I47" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="49" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
@@ -1218,6 +1313,9 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
+      <c r="N58" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
@@ -1363,6 +1461,9 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
+      <c r="N66" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="68" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
@@ -1505,6 +1606,9 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
+      <c r="N75" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="77" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
@@ -1650,6 +1754,9 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
+      <c r="N83" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="85" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>

--- a/Test Summaries/Test Summary 11-07-19 4 kilobytes.xlsx
+++ b/Test Summaries/Test Summary 11-07-19 4 kilobytes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalee\Documents\Work\City University\Performance Testing\Test Summaries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E853B0D-6CAD-4C2D-9C34-7970E7501E4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{952CA776-A2F4-4912-A25D-FC853B7215EB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
